--- a/book/DATA/phase1_document_registry_MASTER_deduped_with_pdfs.xlsx
+++ b/book/DATA/phase1_document_registry_MASTER_deduped_with_pdfs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\aimoralcode-core\book\DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747D8E26-C6A6-4AD1-8D28-957A4DD92609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14355" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1987">
   <si>
     <t>Unique_ID</t>
   </si>
@@ -6097,12 +6103,24 @@
 Principles:
 Precautionary regulation, fairness and non-discrimination, transparency, accountability frameworks, international cooperation, UN engagement, ecumenical collaboration, theological reflection on AI ethics</t>
   </si>
+  <si>
+    <t>https://womenleadinginai.org/wp-content/uploads/2019/02/WLiAI-Report-2019.pdf</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Website only</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/downloads/documents/us-en/11630e2b96302ccc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6126,12 +6144,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -6165,12 +6189,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6178,13 +6203,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6222,7 +6255,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6256,6 +6289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6290,9 +6324,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6465,14 +6500,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1"/>
+    <col min="12" max="12" width="165.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6525,8 +6572,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -6541,6 +6588,9 @@
       <c r="E2">
         <v>2018</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>809</v>
+      </c>
       <c r="G2" t="s">
         <v>977</v>
       </c>
@@ -6550,8 +6600,11 @@
       <c r="I2" t="s">
         <v>1004</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>1983</v>
+      </c>
       <c r="K2" t="s">
-        <v>1047</v>
+        <v>1984</v>
       </c>
       <c r="L2" t="s">
         <v>1048</v>
@@ -6566,8 +6619,8 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -6583,7 +6636,7 @@
         <v>2025</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G3" t="s">
         <v>978</v>
@@ -6594,6 +6647,9 @@
       <c r="I3" t="s">
         <v>1005</v>
       </c>
+      <c r="J3" t="s">
+        <v>1985</v>
+      </c>
       <c r="K3" t="s">
         <v>1047</v>
       </c>
@@ -6610,7 +6666,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -6627,7 +6683,7 @@
         <v>2025</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G4" t="s">
         <v>978</v>
@@ -6638,6 +6694,9 @@
       <c r="I4" t="s">
         <v>1005</v>
       </c>
+      <c r="J4" t="s">
+        <v>1986</v>
+      </c>
       <c r="K4" t="s">
         <v>1047</v>
       </c>
@@ -6654,7 +6713,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -6671,7 +6730,7 @@
         <v>2024</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G5" t="s">
         <v>979</v>
@@ -6698,7 +6757,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -6715,7 +6774,7 @@
         <v>2017</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G6" t="s">
         <v>980</v>
@@ -6742,7 +6801,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -6759,7 +6818,7 @@
         <v>2021</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G7" t="s">
         <v>978</v>
@@ -6786,7 +6845,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6803,7 +6862,7 @@
         <v>2023</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G8" t="s">
         <v>981</v>
@@ -6830,7 +6889,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6847,7 +6906,7 @@
         <v>2020</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G9" t="s">
         <v>982</v>
@@ -6874,7 +6933,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -6891,7 +6950,7 @@
         <v>2025</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G10" t="s">
         <v>981</v>
@@ -6918,7 +6977,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -6935,7 +6994,7 @@
         <v>2025</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G11" t="s">
         <v>978</v>
@@ -6962,7 +7021,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -6979,7 +7038,7 @@
         <v>2025</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G12" t="s">
         <v>978</v>
@@ -7006,7 +7065,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -7023,7 +7082,7 @@
         <v>2021</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G13" t="s">
         <v>983</v>
@@ -7050,7 +7109,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -7067,7 +7126,7 @@
         <v>2025</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="G14" t="s">
         <v>978</v>
@@ -7094,7 +7153,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -7111,7 +7170,7 @@
         <v>2018</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G15" t="s">
         <v>978</v>
@@ -7138,7 +7197,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -7155,7 +7214,7 @@
         <v>2023</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G16" t="s">
         <v>981</v>
@@ -7182,7 +7241,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7199,7 +7258,7 @@
         <v>2018</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G17" t="s">
         <v>980</v>
@@ -7226,7 +7285,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -7270,7 +7329,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -7287,7 +7346,7 @@
         <v>2017</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G19" t="s">
         <v>981</v>
@@ -7314,7 +7373,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -7331,7 +7390,7 @@
         <v>2025</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G20" t="s">
         <v>980</v>
@@ -7358,7 +7417,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -7375,7 +7434,7 @@
         <v>2025</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G21" t="s">
         <v>983</v>
@@ -7402,7 +7461,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -7419,7 +7478,7 @@
         <v>2017</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G22" t="s">
         <v>983</v>
@@ -7446,7 +7505,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -7462,9 +7521,6 @@
       <c r="E23">
         <v>2019</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>827</v>
-      </c>
       <c r="G23" t="s">
         <v>980</v>
       </c>
@@ -7487,7 +7543,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -7525,7 +7581,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -7541,6 +7597,9 @@
       <c r="E25">
         <v>2018</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>828</v>
+      </c>
       <c r="G25" t="s">
         <v>980</v>
       </c>
@@ -7566,7 +7625,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -7583,7 +7642,7 @@
         <v>2021</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G26" t="s">
         <v>983</v>
@@ -7610,7 +7669,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -7627,7 +7686,7 @@
         <v>2019</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="G27" t="s">
         <v>981</v>
@@ -7654,7 +7713,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -7671,7 +7730,7 @@
         <v>2018</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="G28" t="s">
         <v>980</v>
@@ -7698,7 +7757,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -7714,9 +7773,6 @@
       <c r="E29">
         <v>2018</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>830</v>
-      </c>
       <c r="G29" t="s">
         <v>981</v>
       </c>
@@ -7739,7 +7795,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -7755,6 +7811,9 @@
       <c r="E30">
         <v>2021</v>
       </c>
+      <c r="F30" s="2" t="s">
+        <v>831</v>
+      </c>
       <c r="G30" t="s">
         <v>984</v>
       </c>
@@ -7780,7 +7839,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -7797,7 +7856,7 @@
         <v>2021</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="G31" t="s">
         <v>984</v>
@@ -7824,7 +7883,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -7841,7 +7900,7 @@
         <v>2024</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="G32" t="s">
         <v>980</v>
@@ -7868,7 +7927,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -7885,7 +7944,7 @@
         <v>2020</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G33" t="s">
         <v>980</v>
@@ -7912,7 +7971,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -7928,9 +7987,6 @@
       <c r="E34">
         <v>2017</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="G34" t="s">
         <v>983</v>
       </c>
@@ -7953,7 +8009,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -7969,6 +8025,9 @@
       <c r="E35">
         <v>2025</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>834</v>
+      </c>
       <c r="G35" t="s">
         <v>980</v>
       </c>
@@ -7994,7 +8053,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -8011,7 +8070,7 @@
         <v>2025</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G36" t="s">
         <v>981</v>
@@ -8038,7 +8097,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -8055,7 +8114,7 @@
         <v>2021</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="G37" t="s">
         <v>980</v>
@@ -8082,7 +8141,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -8126,7 +8185,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -8142,9 +8201,6 @@
       <c r="E39">
         <v>2019</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="G39" t="s">
         <v>980</v>
       </c>
@@ -8170,7 +8226,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -8211,7 +8267,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -8249,7 +8305,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -8265,6 +8321,9 @@
       <c r="E42">
         <v>2019</v>
       </c>
+      <c r="F42" s="2" t="s">
+        <v>836</v>
+      </c>
       <c r="G42" t="s">
         <v>981</v>
       </c>
@@ -8290,7 +8349,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -8307,7 +8366,7 @@
         <v>2017</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G43" t="s">
         <v>983</v>
@@ -8334,7 +8393,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -8351,7 +8410,7 @@
         <v>2017</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G44" t="s">
         <v>981</v>
@@ -8378,7 +8437,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -8419,7 +8478,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -8436,7 +8495,7 @@
         <v>2019</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G46" t="s">
         <v>980</v>
@@ -8463,7 +8522,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -8480,7 +8539,7 @@
         <v>2025</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G47" t="s">
         <v>978</v>
@@ -8507,7 +8566,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -8524,7 +8583,7 @@
         <v>2018</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G48" t="s">
         <v>980</v>
@@ -8551,7 +8610,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -8568,7 +8627,7 @@
         <v>2019</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G49" t="s">
         <v>978</v>
@@ -8595,7 +8654,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -8612,7 +8671,7 @@
         <v>2019</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G50" t="s">
         <v>981</v>
@@ -8639,7 +8698,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -8655,9 +8714,6 @@
       <c r="E51">
         <v>2017</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>843</v>
-      </c>
       <c r="G51" t="s">
         <v>982</v>
       </c>
@@ -8683,7 +8739,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -8699,6 +8755,9 @@
       <c r="E52">
         <v>2021</v>
       </c>
+      <c r="F52" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="G52" t="s">
         <v>980</v>
       </c>
@@ -8724,7 +8783,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -8741,7 +8800,7 @@
         <v>2024</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G53" t="s">
         <v>978</v>
@@ -8768,7 +8827,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -8785,7 +8844,7 @@
         <v>2023</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G54" t="s">
         <v>985</v>
@@ -8812,7 +8871,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -8828,9 +8887,6 @@
       <c r="E55">
         <v>2018</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="G55" t="s">
         <v>977</v>
       </c>
@@ -8853,7 +8909,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -8869,6 +8925,9 @@
       <c r="E56">
         <v>2025</v>
       </c>
+      <c r="F56" s="2" t="s">
+        <v>847</v>
+      </c>
       <c r="G56" t="s">
         <v>983</v>
       </c>
@@ -8894,7 +8953,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -8911,7 +8970,7 @@
         <v>2025</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G57" t="s">
         <v>981</v>
@@ -8938,7 +8997,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -8954,9 +9013,6 @@
       <c r="E58">
         <v>2018</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>848</v>
-      </c>
       <c r="G58" t="s">
         <v>980</v>
       </c>
@@ -8982,7 +9038,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -8998,6 +9054,9 @@
       <c r="E59">
         <v>2023</v>
       </c>
+      <c r="F59" s="2" t="s">
+        <v>849</v>
+      </c>
       <c r="G59" t="s">
         <v>980</v>
       </c>
@@ -9023,7 +9082,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -9040,7 +9099,7 @@
         <v>2019</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G60" t="s">
         <v>980</v>
@@ -9067,7 +9126,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -9084,7 +9143,7 @@
         <v>2023</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G61" t="s">
         <v>980</v>
@@ -9111,7 +9170,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -9128,7 +9187,7 @@
         <v>2023</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G62" t="s">
         <v>978</v>
@@ -9155,7 +9214,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -9172,7 +9231,7 @@
         <v>2020</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G63" t="s">
         <v>981</v>
@@ -9199,7 +9258,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -9216,7 +9275,7 @@
         <v>2021</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G64" t="s">
         <v>980</v>
@@ -9243,7 +9302,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -9259,9 +9318,6 @@
       <c r="E65">
         <v>2018</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>854</v>
-      </c>
       <c r="G65" t="s">
         <v>977</v>
       </c>
@@ -9284,7 +9340,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -9300,6 +9356,9 @@
       <c r="E66">
         <v>2022</v>
       </c>
+      <c r="F66" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="G66" t="s">
         <v>981</v>
       </c>
@@ -9325,7 +9384,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -9342,7 +9401,7 @@
         <v>2024</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G67" t="s">
         <v>980</v>
@@ -9369,7 +9428,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -9386,7 +9445,7 @@
         <v>2021</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>856</v>
+        <v>813</v>
       </c>
       <c r="G68" t="s">
         <v>980</v>
@@ -9413,7 +9472,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -9429,9 +9488,6 @@
       <c r="E69">
         <v>2018</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="G69" t="s">
         <v>984</v>
       </c>
@@ -9454,7 +9510,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -9470,6 +9526,9 @@
       <c r="E70">
         <v>2019</v>
       </c>
+      <c r="F70" s="2" t="s">
+        <v>813</v>
+      </c>
       <c r="G70" t="s">
         <v>980</v>
       </c>
@@ -9495,7 +9554,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -9512,7 +9571,7 @@
         <v>2025</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>813</v>
+        <v>857</v>
       </c>
       <c r="G71" t="s">
         <v>978</v>
@@ -9539,7 +9598,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -9555,9 +9614,6 @@
       <c r="E72">
         <v>2017</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>857</v>
-      </c>
       <c r="G72" t="s">
         <v>986</v>
       </c>
@@ -9583,7 +9639,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -9599,6 +9655,9 @@
       <c r="E73">
         <v>2019</v>
       </c>
+      <c r="F73" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="G73" t="s">
         <v>980</v>
       </c>
@@ -9624,7 +9683,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -9640,9 +9699,6 @@
       <c r="E74">
         <v>2018</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>858</v>
-      </c>
       <c r="G74" t="s">
         <v>980</v>
       </c>
@@ -9665,7 +9721,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -9703,7 +9759,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -9719,6 +9775,9 @@
       <c r="E76">
         <v>2020</v>
       </c>
+      <c r="F76" s="2" t="s">
+        <v>859</v>
+      </c>
       <c r="G76" t="s">
         <v>980</v>
       </c>
@@ -9744,7 +9803,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -9760,9 +9819,6 @@
       <c r="E77">
         <v>2017</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>859</v>
-      </c>
       <c r="G77" t="s">
         <v>980</v>
       </c>
@@ -9785,7 +9841,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -9826,7 +9882,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -9842,6 +9898,9 @@
       <c r="E79">
         <v>2019</v>
       </c>
+      <c r="F79" s="2" t="s">
+        <v>860</v>
+      </c>
       <c r="G79" t="s">
         <v>981</v>
       </c>
@@ -9867,7 +9926,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -9884,7 +9943,7 @@
         <v>2025</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G80" t="s">
         <v>981</v>
@@ -9911,7 +9970,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -9928,7 +9987,7 @@
         <v>2021</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G81" t="s">
         <v>980</v>
@@ -9955,7 +10014,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -9971,9 +10030,6 @@
       <c r="E82">
         <v>2021</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="G82" t="s">
         <v>980</v>
       </c>
@@ -9996,7 +10052,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -10034,7 +10090,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -10075,7 +10131,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -10091,6 +10147,9 @@
       <c r="E85">
         <v>2017</v>
       </c>
+      <c r="F85" s="2" t="s">
+        <v>863</v>
+      </c>
       <c r="G85" t="s">
         <v>981</v>
       </c>
@@ -10116,7 +10175,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -10160,7 +10219,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -10176,9 +10235,6 @@
       <c r="E87">
         <v>2017</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="G87" t="s">
         <v>989</v>
       </c>
@@ -10204,7 +10260,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -10220,6 +10276,9 @@
       <c r="E88">
         <v>2020</v>
       </c>
+      <c r="F88" s="2" t="s">
+        <v>864</v>
+      </c>
       <c r="G88" t="s">
         <v>981</v>
       </c>
@@ -10245,7 +10304,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -10261,9 +10320,6 @@
       <c r="E89">
         <v>2017</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="G89" t="s">
         <v>980</v>
       </c>
@@ -10289,7 +10345,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -10305,6 +10361,9 @@
       <c r="E90">
         <v>2019</v>
       </c>
+      <c r="F90" s="2" t="s">
+        <v>865</v>
+      </c>
       <c r="G90" t="s">
         <v>980</v>
       </c>
@@ -10327,7 +10386,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -10343,9 +10402,6 @@
       <c r="E91">
         <v>2019</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>865</v>
-      </c>
       <c r="G91" t="s">
         <v>980</v>
       </c>
@@ -10371,7 +10427,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -10387,6 +10443,9 @@
       <c r="E92">
         <v>2025</v>
       </c>
+      <c r="F92" s="2" t="s">
+        <v>866</v>
+      </c>
       <c r="G92" t="s">
         <v>983</v>
       </c>
@@ -10412,7 +10471,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -10428,9 +10487,6 @@
       <c r="E93">
         <v>2019</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>866</v>
-      </c>
       <c r="G93" t="s">
         <v>990</v>
       </c>
@@ -10456,7 +10512,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -10494,7 +10550,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -10532,7 +10588,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -10573,7 +10629,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -10589,6 +10645,9 @@
       <c r="E97">
         <v>2020</v>
       </c>
+      <c r="F97" s="2" t="s">
+        <v>867</v>
+      </c>
       <c r="G97" t="s">
         <v>980</v>
       </c>
@@ -10614,7 +10673,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -10630,9 +10689,6 @@
       <c r="E98">
         <v>2019</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>867</v>
-      </c>
       <c r="G98" t="s">
         <v>984</v>
       </c>
@@ -10658,7 +10714,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -10699,7 +10755,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -10715,6 +10771,9 @@
       <c r="E100">
         <v>2018</v>
       </c>
+      <c r="F100" s="2" t="s">
+        <v>868</v>
+      </c>
       <c r="G100" t="s">
         <v>980</v>
       </c>
@@ -10740,7 +10799,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -10757,7 +10816,7 @@
         <v>2020</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G101" t="s">
         <v>981</v>
@@ -10784,7 +10843,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -10801,7 +10860,7 @@
         <v>2019</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G102" t="s">
         <v>978</v>
@@ -10828,7 +10887,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -10844,9 +10903,6 @@
       <c r="E103">
         <v>2018</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="G103" t="s">
         <v>977</v>
       </c>
@@ -10869,7 +10925,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -10885,6 +10941,9 @@
       <c r="E104">
         <v>2024</v>
       </c>
+      <c r="F104" s="2" t="s">
+        <v>871</v>
+      </c>
       <c r="G104" t="s">
         <v>983</v>
       </c>
@@ -10910,7 +10969,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -10954,7 +11013,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -10971,7 +11030,7 @@
         <v>2017</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G106" t="s">
         <v>980</v>
@@ -10998,7 +11057,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -11015,7 +11074,7 @@
         <v>2018</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G107" t="s">
         <v>980</v>
@@ -11042,7 +11101,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -11059,7 +11118,7 @@
         <v>2021</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>873</v>
+        <v>813</v>
       </c>
       <c r="G108" t="s">
         <v>980</v>
@@ -11086,7 +11145,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -11102,9 +11161,6 @@
       <c r="E109">
         <v>2018</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="G109" t="s">
         <v>980</v>
       </c>
@@ -11130,7 +11186,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -11146,6 +11202,9 @@
       <c r="E110">
         <v>2018</v>
       </c>
+      <c r="F110" s="2" t="s">
+        <v>874</v>
+      </c>
       <c r="G110" t="s">
         <v>980</v>
       </c>
@@ -11171,7 +11230,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -11188,7 +11247,7 @@
         <v>2018</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G111" t="s">
         <v>980</v>
@@ -11215,7 +11274,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -11232,7 +11291,7 @@
         <v>2019</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G112" t="s">
         <v>980</v>
@@ -11259,7 +11318,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -11276,7 +11335,7 @@
         <v>2017</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G113" t="s">
         <v>980</v>
@@ -11303,7 +11362,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -11320,7 +11379,7 @@
         <v>2019</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G114" t="s">
         <v>980</v>
@@ -11347,7 +11406,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -11363,8 +11422,8 @@
       <c r="E115">
         <v>2019</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>878</v>
+      <c r="F115" t="s">
+        <v>879</v>
       </c>
       <c r="G115" t="s">
         <v>980</v>
@@ -11391,7 +11450,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -11407,8 +11466,8 @@
       <c r="E116">
         <v>2016</v>
       </c>
-      <c r="F116" t="s">
-        <v>879</v>
+      <c r="F116" s="2" t="s">
+        <v>880</v>
       </c>
       <c r="G116" t="s">
         <v>980</v>
@@ -11435,7 +11494,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -11452,7 +11511,7 @@
         <v>2024</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G117" t="s">
         <v>980</v>
@@ -11479,7 +11538,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -11496,7 +11555,7 @@
         <v>2025</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G118" t="s">
         <v>981</v>
@@ -11523,7 +11582,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -11540,7 +11599,7 @@
         <v>2020</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G119" t="s">
         <v>980</v>
@@ -11567,7 +11626,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -11584,7 +11643,7 @@
         <v>2023</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G120" t="s">
         <v>978</v>
@@ -11611,7 +11670,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -11628,7 +11687,7 @@
         <v>2018</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G121" t="s">
         <v>980</v>
@@ -11655,7 +11714,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -11672,7 +11731,7 @@
         <v>2018</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G122" t="s">
         <v>978</v>
@@ -11699,7 +11758,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -11716,7 +11775,7 @@
         <v>2018</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G123" t="s">
         <v>978</v>
@@ -11743,7 +11802,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -11760,7 +11819,7 @@
         <v>2019</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G124" t="s">
         <v>980</v>
@@ -11787,7 +11846,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -11803,9 +11862,6 @@
       <c r="E125">
         <v>2018</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>888</v>
-      </c>
       <c r="G125" t="s">
         <v>991</v>
       </c>
@@ -11831,7 +11887,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -11847,6 +11903,9 @@
       <c r="E126">
         <v>2024</v>
       </c>
+      <c r="F126" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="G126" t="s">
         <v>980</v>
       </c>
@@ -11872,7 +11931,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -11889,7 +11948,7 @@
         <v>2020</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G127" t="s">
         <v>980</v>
@@ -11916,7 +11975,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -11933,7 +11992,7 @@
         <v>2011</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G128" t="s">
         <v>983</v>
@@ -11960,7 +12019,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -11977,7 +12036,7 @@
         <v>2019</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G129" t="s">
         <v>978</v>
@@ -12004,7 +12063,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -12021,7 +12080,7 @@
         <v>2024</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G130" t="s">
         <v>980</v>
@@ -12048,7 +12107,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -12064,9 +12123,6 @@
       <c r="E131">
         <v>2017</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>893</v>
-      </c>
       <c r="G131" t="s">
         <v>992</v>
       </c>
@@ -12089,7 +12145,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -12105,6 +12161,9 @@
       <c r="E132">
         <v>2024</v>
       </c>
+      <c r="F132" t="s">
+        <v>894</v>
+      </c>
       <c r="G132" t="s">
         <v>983</v>
       </c>
@@ -12130,7 +12189,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>148</v>
       </c>
@@ -12146,8 +12205,8 @@
       <c r="E133">
         <v>2018</v>
       </c>
-      <c r="F133" t="s">
-        <v>894</v>
+      <c r="F133" s="2" t="s">
+        <v>895</v>
       </c>
       <c r="G133" t="s">
         <v>983</v>
@@ -12174,7 +12233,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -12190,9 +12249,6 @@
       <c r="E134">
         <v>2018</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>895</v>
-      </c>
       <c r="G134" t="s">
         <v>984</v>
       </c>
@@ -12218,7 +12274,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -12234,6 +12290,9 @@
       <c r="E135">
         <v>2019</v>
       </c>
+      <c r="F135" s="2" t="s">
+        <v>896</v>
+      </c>
       <c r="G135" t="s">
         <v>980</v>
       </c>
@@ -12259,7 +12318,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -12276,7 +12335,7 @@
         <v>2023</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G136" t="s">
         <v>981</v>
@@ -12303,7 +12362,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -12319,9 +12378,6 @@
       <c r="E137">
         <v>2018</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>897</v>
-      </c>
       <c r="G137" t="s">
         <v>978</v>
       </c>
@@ -12347,7 +12403,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -12363,6 +12419,9 @@
       <c r="E138">
         <v>2021</v>
       </c>
+      <c r="F138" s="2" t="s">
+        <v>898</v>
+      </c>
       <c r="G138" t="s">
         <v>980</v>
       </c>
@@ -12388,7 +12447,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -12405,7 +12464,7 @@
         <v>2023</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G139" t="s">
         <v>981</v>
@@ -12429,7 +12488,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -12446,7 +12505,7 @@
         <v>2024</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G140" t="s">
         <v>981</v>
@@ -12473,7 +12532,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>156</v>
       </c>
@@ -12489,9 +12548,6 @@
       <c r="E141">
         <v>2018</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>900</v>
-      </c>
       <c r="G141" t="s">
         <v>980</v>
       </c>
@@ -12517,7 +12573,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>157</v>
       </c>
@@ -12533,6 +12589,9 @@
       <c r="E142">
         <v>2021</v>
       </c>
+      <c r="F142" s="2" t="s">
+        <v>901</v>
+      </c>
       <c r="G142" t="s">
         <v>985</v>
       </c>
@@ -12558,7 +12617,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>158</v>
       </c>
@@ -12575,7 +12634,7 @@
         <v>2023</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G143" t="s">
         <v>978</v>
@@ -12599,7 +12658,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>159</v>
       </c>
@@ -12616,7 +12675,7 @@
         <v>2023</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G144" t="s">
         <v>980</v>
@@ -12643,7 +12702,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>160</v>
       </c>
@@ -12660,7 +12719,7 @@
         <v>2025</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G145" t="s">
         <v>981</v>
@@ -12687,7 +12746,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -12703,9 +12762,6 @@
       <c r="E146">
         <v>2018</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>904</v>
-      </c>
       <c r="G146" t="s">
         <v>985</v>
       </c>
@@ -12731,7 +12787,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>162</v>
       </c>
@@ -12747,6 +12803,9 @@
       <c r="E147">
         <v>2024</v>
       </c>
+      <c r="F147" s="2" t="s">
+        <v>905</v>
+      </c>
       <c r="G147" t="s">
         <v>981</v>
       </c>
@@ -12772,7 +12831,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>163</v>
       </c>
@@ -12789,7 +12848,7 @@
         <v>2023</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G148" t="s">
         <v>980</v>
@@ -12816,7 +12875,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>164</v>
       </c>
@@ -12832,9 +12891,6 @@
       <c r="E149">
         <v>2017</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>906</v>
-      </c>
       <c r="G149" t="s">
         <v>977</v>
       </c>
@@ -12860,7 +12916,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -12876,6 +12932,9 @@
       <c r="E150">
         <v>2024</v>
       </c>
+      <c r="F150" s="2" t="s">
+        <v>907</v>
+      </c>
       <c r="G150" t="s">
         <v>981</v>
       </c>
@@ -12901,7 +12960,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>166</v>
       </c>
@@ -12918,7 +12977,7 @@
         <v>2019</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G151" t="s">
         <v>980</v>
@@ -12945,7 +13004,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>167</v>
       </c>
@@ -12962,7 +13021,7 @@
         <v>2024</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G152" t="s">
         <v>979</v>
@@ -12989,7 +13048,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -13006,7 +13065,7 @@
         <v>2023</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G153" t="s">
         <v>979</v>
@@ -13033,7 +13092,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>169</v>
       </c>
@@ -13049,9 +13108,6 @@
       <c r="E154">
         <v>2018</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>910</v>
-      </c>
       <c r="G154" t="s">
         <v>980</v>
       </c>
@@ -13077,7 +13133,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>170</v>
       </c>
@@ -13115,7 +13171,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -13156,7 +13212,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -13172,6 +13228,9 @@
       <c r="E157">
         <v>2018</v>
       </c>
+      <c r="F157" s="2" t="s">
+        <v>911</v>
+      </c>
       <c r="G157" t="s">
         <v>981</v>
       </c>
@@ -13194,7 +13253,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -13211,7 +13270,7 @@
         <v>2020</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G158" t="s">
         <v>978</v>
@@ -13238,7 +13297,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -13254,9 +13313,6 @@
       <c r="E159">
         <v>2018</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>912</v>
-      </c>
       <c r="G159" t="s">
         <v>985</v>
       </c>
@@ -13279,7 +13335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>175</v>
       </c>
@@ -13295,6 +13351,9 @@
       <c r="E160">
         <v>2018</v>
       </c>
+      <c r="F160" s="2" t="s">
+        <v>913</v>
+      </c>
       <c r="G160" t="s">
         <v>985</v>
       </c>
@@ -13320,7 +13379,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>176</v>
       </c>
@@ -13337,7 +13396,7 @@
         <v>2023</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G161" t="s">
         <v>985</v>
@@ -13364,7 +13423,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>177</v>
       </c>
@@ -13381,7 +13440,7 @@
         <v>2018</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G162" t="s">
         <v>978</v>
@@ -13408,7 +13467,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>178</v>
       </c>
@@ -13424,9 +13483,6 @@
       <c r="E163">
         <v>2019</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>915</v>
-      </c>
       <c r="G163" t="s">
         <v>980</v>
       </c>
@@ -13452,7 +13508,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>179</v>
       </c>
@@ -13493,7 +13549,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>180</v>
       </c>
@@ -13509,6 +13565,9 @@
       <c r="E165">
         <v>2018</v>
       </c>
+      <c r="F165" s="2" t="s">
+        <v>916</v>
+      </c>
       <c r="G165" t="s">
         <v>981</v>
       </c>
@@ -13531,7 +13590,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -13548,7 +13607,7 @@
         <v>2017</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G166" t="s">
         <v>981</v>
@@ -13575,7 +13634,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>182</v>
       </c>
@@ -13592,7 +13651,7 @@
         <v>2021</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G167" t="s">
         <v>980</v>
@@ -13619,7 +13678,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>183</v>
       </c>
@@ -13636,7 +13695,7 @@
         <v>2021</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G168" t="s">
         <v>980</v>
@@ -13663,7 +13722,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -13679,9 +13738,6 @@
       <c r="E169">
         <v>2019</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>919</v>
-      </c>
       <c r="G169" t="s">
         <v>980</v>
       </c>
@@ -13707,7 +13763,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -13723,6 +13779,9 @@
       <c r="E170">
         <v>2021</v>
       </c>
+      <c r="F170" s="2" t="s">
+        <v>813</v>
+      </c>
       <c r="G170" t="s">
         <v>980</v>
       </c>
@@ -13748,7 +13807,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>186</v>
       </c>
@@ -13764,9 +13823,6 @@
       <c r="E171">
         <v>2016</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="G171" t="s">
         <v>980</v>
       </c>
@@ -13792,7 +13848,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>187</v>
       </c>
@@ -13808,6 +13864,9 @@
       <c r="E172">
         <v>2023</v>
       </c>
+      <c r="F172" s="2" t="s">
+        <v>813</v>
+      </c>
       <c r="G172" t="s">
         <v>980</v>
       </c>
@@ -13833,7 +13892,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -13877,7 +13936,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>189</v>
       </c>
@@ -13921,7 +13980,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>190</v>
       </c>
@@ -13938,7 +13997,7 @@
         <v>2018</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="G175" t="s">
         <v>980</v>
@@ -13965,7 +14024,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -13982,7 +14041,7 @@
         <v>2020</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>920</v>
+        <v>813</v>
       </c>
       <c r="G176" t="s">
         <v>980</v>
@@ -14009,7 +14068,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>192</v>
       </c>
@@ -14026,7 +14085,7 @@
         <v>2021</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>813</v>
+        <v>921</v>
       </c>
       <c r="G177" t="s">
         <v>980</v>
@@ -14053,7 +14112,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>193</v>
       </c>
@@ -14070,7 +14129,7 @@
         <v>2023</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>921</v>
+        <v>813</v>
       </c>
       <c r="G178" t="s">
         <v>978</v>
@@ -14097,7 +14156,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>194</v>
       </c>
@@ -14114,7 +14173,7 @@
         <v>2025</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>813</v>
+        <v>922</v>
       </c>
       <c r="G179" t="s">
         <v>980</v>
@@ -14141,7 +14200,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>195</v>
       </c>
@@ -14158,7 +14217,7 @@
         <v>2018</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G180" t="s">
         <v>980</v>
@@ -14185,7 +14244,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>196</v>
       </c>
@@ -14202,7 +14261,7 @@
         <v>2019</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G181" t="s">
         <v>980</v>
@@ -14229,7 +14288,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>197</v>
       </c>
@@ -14246,7 +14305,7 @@
         <v>2019</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G182" t="s">
         <v>980</v>
@@ -14273,7 +14332,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>198</v>
       </c>
@@ -14290,7 +14349,7 @@
         <v>2024</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G183" t="s">
         <v>980</v>
@@ -14317,7 +14376,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>199</v>
       </c>
@@ -14334,7 +14393,7 @@
         <v>2024</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G184" t="s">
         <v>980</v>
@@ -14361,7 +14420,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>200</v>
       </c>
@@ -14378,7 +14437,7 @@
         <v>2024</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G185" t="s">
         <v>979</v>
@@ -14405,7 +14464,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>201</v>
       </c>
@@ -14421,9 +14480,6 @@
       <c r="E186">
         <v>2018</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>928</v>
-      </c>
       <c r="G186" t="s">
         <v>978</v>
       </c>
@@ -14449,7 +14505,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>202</v>
       </c>
@@ -14465,6 +14521,9 @@
       <c r="E187">
         <v>2018</v>
       </c>
+      <c r="F187" s="2" t="s">
+        <v>929</v>
+      </c>
       <c r="G187" t="s">
         <v>985</v>
       </c>
@@ -14490,7 +14549,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>203</v>
       </c>
@@ -14507,7 +14566,7 @@
         <v>2024</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>929</v>
+        <v>886</v>
       </c>
       <c r="G188" t="s">
         <v>978</v>
@@ -14534,7 +14593,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>204</v>
       </c>
@@ -14550,9 +14609,6 @@
       <c r="E189">
         <v>2018</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>886</v>
-      </c>
       <c r="G189" t="s">
         <v>978</v>
       </c>
@@ -14578,7 +14634,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>205</v>
       </c>
@@ -14594,6 +14650,9 @@
       <c r="E190">
         <v>2025</v>
       </c>
+      <c r="F190" s="2" t="s">
+        <v>930</v>
+      </c>
       <c r="G190" t="s">
         <v>981</v>
       </c>
@@ -14619,7 +14678,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>206</v>
       </c>
@@ -14636,7 +14695,7 @@
         <v>2025</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G191" t="s">
         <v>981</v>
@@ -14663,7 +14722,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>207</v>
       </c>
@@ -14680,7 +14739,7 @@
         <v>2016</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G192" t="s">
         <v>983</v>
@@ -14707,7 +14766,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>208</v>
       </c>
@@ -14723,9 +14782,6 @@
       <c r="E193">
         <v>2016</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>932</v>
-      </c>
       <c r="G193" t="s">
         <v>985</v>
       </c>
@@ -14751,7 +14807,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>209</v>
       </c>
@@ -14767,6 +14823,9 @@
       <c r="E194">
         <v>2016</v>
       </c>
+      <c r="F194" s="2" t="s">
+        <v>933</v>
+      </c>
       <c r="G194" t="s">
         <v>983</v>
       </c>
@@ -14792,7 +14851,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>210</v>
       </c>
@@ -14809,7 +14868,7 @@
         <v>2025</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G195" t="s">
         <v>981</v>
@@ -14836,7 +14895,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>211</v>
       </c>
@@ -14853,7 +14912,7 @@
         <v>2024</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G196" t="s">
         <v>981</v>
@@ -14880,7 +14939,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>212</v>
       </c>
@@ -14896,9 +14955,6 @@
       <c r="E197">
         <v>2018</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>935</v>
-      </c>
       <c r="G197" t="s">
         <v>990</v>
       </c>
@@ -14924,7 +14980,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>213</v>
       </c>
@@ -14965,7 +15021,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>214</v>
       </c>
@@ -14981,6 +15037,9 @@
       <c r="E199">
         <v>2016</v>
       </c>
+      <c r="F199" s="2" t="s">
+        <v>936</v>
+      </c>
       <c r="G199" t="s">
         <v>980</v>
       </c>
@@ -15006,7 +15065,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>215</v>
       </c>
@@ -15022,9 +15081,6 @@
       <c r="E200">
         <v>2016</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>936</v>
-      </c>
       <c r="G200" t="s">
         <v>980</v>
       </c>
@@ -15050,7 +15106,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -15066,6 +15122,9 @@
       <c r="E201">
         <v>2020</v>
       </c>
+      <c r="F201" s="2" t="s">
+        <v>937</v>
+      </c>
       <c r="G201" t="s">
         <v>981</v>
       </c>
@@ -15091,7 +15150,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>217</v>
       </c>
@@ -15108,7 +15167,7 @@
         <v>2020</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="G202" t="s">
         <v>981</v>
@@ -15135,7 +15194,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>218</v>
       </c>
@@ -15151,9 +15210,6 @@
       <c r="E203">
         <v>2016</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>938</v>
-      </c>
       <c r="G203" t="s">
         <v>993</v>
       </c>
@@ -15179,7 +15235,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>219</v>
       </c>
@@ -15195,6 +15251,9 @@
       <c r="E204">
         <v>2019</v>
       </c>
+      <c r="F204" s="2" t="s">
+        <v>939</v>
+      </c>
       <c r="G204" t="s">
         <v>981</v>
       </c>
@@ -15220,7 +15279,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>220</v>
       </c>
@@ -15237,7 +15296,7 @@
         <v>2024</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G205" t="s">
         <v>978</v>
@@ -15264,7 +15323,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>221</v>
       </c>
@@ -15280,9 +15339,6 @@
       <c r="E206">
         <v>2011</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>940</v>
-      </c>
       <c r="G206" t="s">
         <v>981</v>
       </c>
@@ -15308,7 +15364,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>222</v>
       </c>
@@ -15349,7 +15405,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>223</v>
       </c>
@@ -15365,6 +15421,9 @@
       <c r="E208">
         <v>2018</v>
       </c>
+      <c r="F208" s="2" t="s">
+        <v>941</v>
+      </c>
       <c r="G208" t="s">
         <v>978</v>
       </c>
@@ -15390,7 +15449,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>224</v>
       </c>
@@ -15407,7 +15466,7 @@
         <v>2022</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G209" t="s">
         <v>980</v>
@@ -15434,7 +15493,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>225</v>
       </c>
@@ -15451,7 +15510,7 @@
         <v>2022</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G210" t="s">
         <v>980</v>
@@ -15478,7 +15537,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -15495,7 +15554,7 @@
         <v>2024</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G211" t="s">
         <v>978</v>
@@ -15522,7 +15581,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>227</v>
       </c>
@@ -15539,7 +15598,7 @@
         <v>2025</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G212" t="s">
         <v>978</v>
@@ -15566,7 +15625,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>228</v>
       </c>
@@ -15582,9 +15641,6 @@
       <c r="E213">
         <v>2017</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>945</v>
-      </c>
       <c r="G213" t="s">
         <v>984</v>
       </c>
@@ -15610,7 +15666,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>229</v>
       </c>
@@ -15626,6 +15682,9 @@
       <c r="E214">
         <v>2018</v>
       </c>
+      <c r="F214" s="2" t="s">
+        <v>946</v>
+      </c>
       <c r="G214" t="s">
         <v>983</v>
       </c>
@@ -15651,7 +15710,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>230</v>
       </c>
@@ -15667,9 +15726,6 @@
       <c r="E215">
         <v>2017</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>946</v>
-      </c>
       <c r="G215" t="s">
         <v>980</v>
       </c>
@@ -15695,7 +15751,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>231</v>
       </c>
@@ -15711,6 +15767,9 @@
       <c r="E216">
         <v>2024</v>
       </c>
+      <c r="F216" s="2" t="s">
+        <v>947</v>
+      </c>
       <c r="G216" t="s">
         <v>985</v>
       </c>
@@ -15736,7 +15795,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>232</v>
       </c>
@@ -15752,9 +15811,6 @@
       <c r="E217">
         <v>2017</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>947</v>
-      </c>
       <c r="G217" t="s">
         <v>995</v>
       </c>
@@ -15777,7 +15833,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>233</v>
       </c>
@@ -15793,6 +15849,9 @@
       <c r="E218">
         <v>2023</v>
       </c>
+      <c r="F218" s="2" t="s">
+        <v>948</v>
+      </c>
       <c r="G218" t="s">
         <v>980</v>
       </c>
@@ -15815,7 +15874,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>234</v>
       </c>
@@ -15831,9 +15890,6 @@
       <c r="E219">
         <v>2018</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>948</v>
-      </c>
       <c r="G219" t="s">
         <v>977</v>
       </c>
@@ -15859,7 +15915,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>235</v>
       </c>
@@ -15875,6 +15931,9 @@
       <c r="E220">
         <v>2016</v>
       </c>
+      <c r="F220" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="G220" t="s">
         <v>985</v>
       </c>
@@ -15900,7 +15959,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>236</v>
       </c>
@@ -15917,7 +15976,7 @@
         <v>2022</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G221" t="s">
         <v>981</v>
@@ -15944,7 +16003,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>237</v>
       </c>
@@ -15960,9 +16019,6 @@
       <c r="E222">
         <v>2019</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>950</v>
-      </c>
       <c r="G222" t="s">
         <v>978</v>
       </c>
@@ -15988,7 +16044,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>238</v>
       </c>
@@ -16004,6 +16060,9 @@
       <c r="E223">
         <v>2025</v>
       </c>
+      <c r="F223" s="2" t="s">
+        <v>951</v>
+      </c>
       <c r="G223" t="s">
         <v>985</v>
       </c>
@@ -16029,7 +16088,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>239</v>
       </c>
@@ -16046,7 +16105,7 @@
         <v>2021</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G224" t="s">
         <v>978</v>
@@ -16073,7 +16132,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -16089,9 +16148,6 @@
       <c r="E225">
         <v>2024</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>952</v>
-      </c>
       <c r="G225" t="s">
         <v>978</v>
       </c>
@@ -16117,7 +16173,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>241</v>
       </c>
@@ -16158,7 +16214,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>242</v>
       </c>
@@ -16199,7 +16255,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>243</v>
       </c>
@@ -16240,7 +16296,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>244</v>
       </c>
@@ -16281,7 +16337,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>245</v>
       </c>
@@ -16319,7 +16375,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>246</v>
       </c>
@@ -16360,7 +16416,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>247</v>
       </c>
@@ -16401,7 +16457,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>248</v>
       </c>
@@ -16442,7 +16498,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>249</v>
       </c>
@@ -16480,7 +16536,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>250</v>
       </c>
@@ -16521,7 +16577,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>251</v>
       </c>
@@ -16537,6 +16593,9 @@
       <c r="E236">
         <v>2021</v>
       </c>
+      <c r="F236" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="G236" t="s">
         <v>980</v>
       </c>
@@ -16562,7 +16621,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>252</v>
       </c>
@@ -16578,9 +16637,6 @@
       <c r="E237">
         <v>2024</v>
       </c>
-      <c r="F237" s="2" t="s">
-        <v>953</v>
-      </c>
       <c r="G237" t="s">
         <v>981</v>
       </c>
@@ -16606,7 +16662,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>253</v>
       </c>
@@ -16622,6 +16678,9 @@
       <c r="E238">
         <v>2024</v>
       </c>
+      <c r="F238" s="2" t="s">
+        <v>954</v>
+      </c>
       <c r="G238" t="s">
         <v>996</v>
       </c>
@@ -16644,7 +16703,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>254</v>
       </c>
@@ -16660,9 +16719,6 @@
       <c r="E239">
         <v>2019</v>
       </c>
-      <c r="F239" s="2" t="s">
-        <v>954</v>
-      </c>
       <c r="G239" t="s">
         <v>980</v>
       </c>
@@ -16685,7 +16741,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>255</v>
       </c>
@@ -16723,7 +16779,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>256</v>
       </c>
@@ -16739,6 +16795,9 @@
       <c r="E241">
         <v>2019</v>
       </c>
+      <c r="F241" s="2" t="s">
+        <v>955</v>
+      </c>
       <c r="G241" t="s">
         <v>980</v>
       </c>
@@ -16764,7 +16823,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>257</v>
       </c>
@@ -16781,7 +16840,7 @@
         <v>2014</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G242" t="s">
         <v>980</v>
@@ -16808,7 +16867,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>258</v>
       </c>
@@ -16824,9 +16883,6 @@
       <c r="E243">
         <v>2018</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>956</v>
-      </c>
       <c r="G243" t="s">
         <v>977</v>
       </c>
@@ -16852,7 +16908,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>259</v>
       </c>
@@ -16868,6 +16924,9 @@
       <c r="E244">
         <v>2025</v>
       </c>
+      <c r="F244" s="2" t="s">
+        <v>957</v>
+      </c>
       <c r="G244" t="s">
         <v>978</v>
       </c>
@@ -16893,7 +16952,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>260</v>
       </c>
@@ -16909,9 +16968,6 @@
       <c r="E245">
         <v>2024</v>
       </c>
-      <c r="F245" s="2" t="s">
-        <v>957</v>
-      </c>
       <c r="G245" t="s">
         <v>980</v>
       </c>
@@ -16937,7 +16993,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>261</v>
       </c>
@@ -16978,7 +17034,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>262</v>
       </c>
@@ -17019,7 +17075,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>263</v>
       </c>
@@ -17035,6 +17091,9 @@
       <c r="E248">
         <v>2018</v>
       </c>
+      <c r="F248" s="2" t="s">
+        <v>958</v>
+      </c>
       <c r="G248" t="s">
         <v>980</v>
       </c>
@@ -17060,7 +17119,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -17077,7 +17136,7 @@
         <v>2024</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>958</v>
+        <v>813</v>
       </c>
       <c r="G249" t="s">
         <v>980</v>
@@ -17104,7 +17163,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>265</v>
       </c>
@@ -17148,7 +17207,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -17165,7 +17224,7 @@
         <v>2018</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>813</v>
+        <v>959</v>
       </c>
       <c r="G251" t="s">
         <v>980</v>
@@ -17192,7 +17251,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -17209,7 +17268,7 @@
         <v>2018</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G252" t="s">
         <v>978</v>
@@ -17236,7 +17295,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>268</v>
       </c>
@@ -17253,7 +17312,7 @@
         <v>2018</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G253" t="s">
         <v>978</v>
@@ -17280,7 +17339,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>269</v>
       </c>
@@ -17296,9 +17355,6 @@
       <c r="E254">
         <v>2022</v>
       </c>
-      <c r="F254" s="2" t="s">
-        <v>961</v>
-      </c>
       <c r="G254" t="s">
         <v>985</v>
       </c>
@@ -17324,7 +17380,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -17365,7 +17421,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -17381,6 +17437,9 @@
       <c r="E256">
         <v>2018</v>
       </c>
+      <c r="F256" s="2" t="s">
+        <v>962</v>
+      </c>
       <c r="G256" t="s">
         <v>983</v>
       </c>
@@ -17406,7 +17465,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>272</v>
       </c>
@@ -17423,7 +17482,7 @@
         <v>2024</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G257" t="s">
         <v>978</v>
@@ -17450,7 +17509,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>273</v>
       </c>
@@ -17466,8 +17525,8 @@
       <c r="E258">
         <v>2019</v>
       </c>
-      <c r="F258" s="2" t="s">
-        <v>963</v>
+      <c r="F258" t="s">
+        <v>964</v>
       </c>
       <c r="G258" t="s">
         <v>981</v>
@@ -17494,7 +17553,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>274</v>
       </c>
@@ -17510,8 +17569,8 @@
       <c r="E259">
         <v>2019</v>
       </c>
-      <c r="F259" t="s">
-        <v>964</v>
+      <c r="F259" s="2" t="s">
+        <v>965</v>
       </c>
       <c r="G259" t="s">
         <v>981</v>
@@ -17538,7 +17597,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>275</v>
       </c>
@@ -17555,7 +17614,7 @@
         <v>2024</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G260" t="s">
         <v>981</v>
@@ -17582,7 +17641,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>276</v>
       </c>
@@ -17598,9 +17657,6 @@
       <c r="E261">
         <v>2018</v>
       </c>
-      <c r="F261" s="2" t="s">
-        <v>966</v>
-      </c>
       <c r="G261" t="s">
         <v>997</v>
       </c>
@@ -17626,7 +17682,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>277</v>
       </c>
@@ -17642,6 +17698,9 @@
       <c r="E262">
         <v>2025</v>
       </c>
+      <c r="F262" s="2" t="s">
+        <v>967</v>
+      </c>
       <c r="G262" t="s">
         <v>978</v>
       </c>
@@ -17667,7 +17726,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>278</v>
       </c>
@@ -17684,7 +17743,7 @@
         <v>2024</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G263" t="s">
         <v>980</v>
@@ -17711,7 +17770,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -17728,7 +17787,7 @@
         <v>2018</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G264" t="s">
         <v>980</v>
@@ -17755,7 +17814,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>280</v>
       </c>
@@ -17771,9 +17830,6 @@
       <c r="E265">
         <v>2016</v>
       </c>
-      <c r="F265" s="2" t="s">
-        <v>969</v>
-      </c>
       <c r="G265" t="s">
         <v>998</v>
       </c>
@@ -17796,7 +17852,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>281</v>
       </c>
@@ -17834,7 +17890,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>282</v>
       </c>
@@ -17875,7 +17931,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>283</v>
       </c>
@@ -17916,7 +17972,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>284</v>
       </c>
@@ -17932,6 +17988,9 @@
       <c r="E269">
         <v>2018</v>
       </c>
+      <c r="F269" s="2" t="s">
+        <v>813</v>
+      </c>
       <c r="G269" t="s">
         <v>983</v>
       </c>
@@ -17957,7 +18016,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -17974,7 +18033,7 @@
         <v>2023</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>813</v>
+        <v>970</v>
       </c>
       <c r="G270" t="s">
         <v>981</v>
@@ -18001,7 +18060,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>286</v>
       </c>
@@ -18017,9 +18076,6 @@
       <c r="E271">
         <v>2025</v>
       </c>
-      <c r="F271" s="2" t="s">
-        <v>970</v>
-      </c>
       <c r="G271" t="s">
         <v>977</v>
       </c>
@@ -18042,7 +18098,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>287</v>
       </c>
@@ -18058,6 +18114,9 @@
       <c r="E272">
         <v>2023</v>
       </c>
+      <c r="F272" s="2" t="s">
+        <v>971</v>
+      </c>
       <c r="G272" t="s">
         <v>980</v>
       </c>
@@ -18083,7 +18142,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -18099,9 +18158,6 @@
       <c r="E273">
         <v>2021</v>
       </c>
-      <c r="F273" s="2" t="s">
-        <v>971</v>
-      </c>
       <c r="G273" t="s">
         <v>985</v>
       </c>
@@ -18127,7 +18183,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -18168,7 +18224,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>290</v>
       </c>
@@ -18206,7 +18262,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>291</v>
       </c>
@@ -18247,7 +18303,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>292</v>
       </c>
@@ -18263,6 +18319,9 @@
       <c r="E277">
         <v>2018</v>
       </c>
+      <c r="F277" s="2" t="s">
+        <v>972</v>
+      </c>
       <c r="G277" t="s">
         <v>984</v>
       </c>
@@ -18288,7 +18347,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -18304,9 +18363,6 @@
       <c r="E278">
         <v>2024</v>
       </c>
-      <c r="F278" s="2" t="s">
-        <v>972</v>
-      </c>
       <c r="G278" t="s">
         <v>981</v>
       </c>
@@ -18329,7 +18385,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>294</v>
       </c>
@@ -18345,6 +18401,9 @@
       <c r="E279">
         <v>2025</v>
       </c>
+      <c r="F279" s="2" t="s">
+        <v>973</v>
+      </c>
       <c r="G279" t="s">
         <v>981</v>
       </c>
@@ -18370,7 +18429,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -18386,9 +18445,6 @@
       <c r="E280">
         <v>2023</v>
       </c>
-      <c r="F280" s="2" t="s">
-        <v>973</v>
-      </c>
       <c r="G280" t="s">
         <v>978</v>
       </c>
@@ -18414,7 +18470,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -18430,6 +18486,9 @@
       <c r="E281">
         <v>2021</v>
       </c>
+      <c r="F281" s="2" t="s">
+        <v>974</v>
+      </c>
       <c r="G281" t="s">
         <v>980</v>
       </c>
@@ -18455,7 +18514,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -18471,9 +18530,6 @@
       <c r="E282">
         <v>2024</v>
       </c>
-      <c r="F282" s="2" t="s">
-        <v>974</v>
-      </c>
       <c r="G282" t="s">
         <v>977</v>
       </c>
@@ -18499,7 +18555,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -18515,6 +18571,9 @@
       <c r="E283">
         <v>2021</v>
       </c>
+      <c r="F283" s="2" t="s">
+        <v>975</v>
+      </c>
       <c r="G283" t="s">
         <v>981</v>
       </c>
@@ -18540,7 +18599,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -18556,9 +18615,6 @@
       <c r="E284">
         <v>2024</v>
       </c>
-      <c r="F284" s="2" t="s">
-        <v>975</v>
-      </c>
       <c r="G284" t="s">
         <v>977</v>
       </c>
@@ -18581,7 +18637,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>300</v>
       </c>
@@ -18622,7 +18678,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>301</v>
       </c>
@@ -18663,7 +18719,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -18701,7 +18757,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>303</v>
       </c>
@@ -18739,10 +18795,13 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>304</v>
       </c>
+      <c r="F289" s="2" t="s">
+        <v>976</v>
+      </c>
       <c r="H289" t="s">
         <v>999</v>
       </c>
@@ -18756,13 +18815,10 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>305</v>
       </c>
-      <c r="F290" s="2" t="s">
-        <v>976</v>
-      </c>
       <c r="H290" t="s">
         <v>999</v>
       </c>
@@ -18778,295 +18834,296 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F6" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F8" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F10" r:id="rId8"/>
-    <hyperlink ref="F11" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F17" r:id="rId15"/>
-    <hyperlink ref="F18" r:id="rId16"/>
-    <hyperlink ref="F19" r:id="rId17"/>
-    <hyperlink ref="F20" r:id="rId18"/>
-    <hyperlink ref="F21" r:id="rId19"/>
-    <hyperlink ref="F22" r:id="rId20"/>
-    <hyperlink ref="F23" r:id="rId21"/>
-    <hyperlink ref="M23" r:id="rId22"/>
-    <hyperlink ref="M24" r:id="rId23"/>
-    <hyperlink ref="F26" r:id="rId24"/>
-    <hyperlink ref="F27" r:id="rId25"/>
-    <hyperlink ref="F28" r:id="rId26"/>
-    <hyperlink ref="F29" r:id="rId27"/>
-    <hyperlink ref="M29" r:id="rId28"/>
-    <hyperlink ref="F31" r:id="rId29"/>
-    <hyperlink ref="M31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="M34" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="M39" r:id="rId39"/>
-    <hyperlink ref="M40" r:id="rId40"/>
-    <hyperlink ref="M41" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="M51" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="M55" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="M58" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="M65" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="M69" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="M72" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="M74" r:id="rId74"/>
-    <hyperlink ref="M75" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="M77" r:id="rId77"/>
-    <hyperlink ref="M78" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="M82" r:id="rId82"/>
-    <hyperlink ref="M84" r:id="rId83"/>
-    <hyperlink ref="F86" r:id="rId84"/>
-    <hyperlink ref="F87" r:id="rId85"/>
-    <hyperlink ref="M87" r:id="rId86"/>
-    <hyperlink ref="M88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="M89" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="M91" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="M93" r:id="rId93"/>
-    <hyperlink ref="M94" r:id="rId94"/>
-    <hyperlink ref="M95" r:id="rId95"/>
-    <hyperlink ref="M96" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="M98" r:id="rId98"/>
-    <hyperlink ref="F101" r:id="rId99"/>
-    <hyperlink ref="F102" r:id="rId100"/>
-    <hyperlink ref="F103" r:id="rId101"/>
-    <hyperlink ref="M103" r:id="rId102"/>
-    <hyperlink ref="F105" r:id="rId103"/>
-    <hyperlink ref="F106" r:id="rId104"/>
-    <hyperlink ref="F107" r:id="rId105"/>
-    <hyperlink ref="F108" r:id="rId106"/>
-    <hyperlink ref="F109" r:id="rId107"/>
-    <hyperlink ref="M109" r:id="rId108"/>
-    <hyperlink ref="F111" r:id="rId109"/>
-    <hyperlink ref="F112" r:id="rId110"/>
-    <hyperlink ref="F113" r:id="rId111"/>
-    <hyperlink ref="F114" r:id="rId112"/>
-    <hyperlink ref="F115" r:id="rId113"/>
-    <hyperlink ref="F117" r:id="rId114"/>
-    <hyperlink ref="F118" r:id="rId115"/>
-    <hyperlink ref="F119" r:id="rId116"/>
-    <hyperlink ref="F120" r:id="rId117"/>
-    <hyperlink ref="F121" r:id="rId118"/>
-    <hyperlink ref="F122" r:id="rId119"/>
-    <hyperlink ref="F123" r:id="rId120"/>
-    <hyperlink ref="F124" r:id="rId121"/>
-    <hyperlink ref="F125" r:id="rId122"/>
-    <hyperlink ref="M125" r:id="rId123"/>
-    <hyperlink ref="F127" r:id="rId124"/>
-    <hyperlink ref="F128" r:id="rId125"/>
-    <hyperlink ref="F129" r:id="rId126"/>
-    <hyperlink ref="F130" r:id="rId127"/>
-    <hyperlink ref="F131" r:id="rId128"/>
-    <hyperlink ref="M131" r:id="rId129"/>
-    <hyperlink ref="F134" r:id="rId130"/>
-    <hyperlink ref="M134" r:id="rId131"/>
-    <hyperlink ref="F136" r:id="rId132"/>
-    <hyperlink ref="F137" r:id="rId133"/>
-    <hyperlink ref="M137" r:id="rId134"/>
-    <hyperlink ref="F139" r:id="rId135"/>
-    <hyperlink ref="M139" r:id="rId136"/>
-    <hyperlink ref="F140" r:id="rId137"/>
-    <hyperlink ref="F141" r:id="rId138"/>
-    <hyperlink ref="M141" r:id="rId139"/>
-    <hyperlink ref="F143" r:id="rId140"/>
-    <hyperlink ref="F144" r:id="rId141"/>
-    <hyperlink ref="F145" r:id="rId142"/>
-    <hyperlink ref="F146" r:id="rId143"/>
-    <hyperlink ref="F148" r:id="rId144"/>
-    <hyperlink ref="F149" r:id="rId145"/>
-    <hyperlink ref="M149" r:id="rId146"/>
-    <hyperlink ref="F151" r:id="rId147"/>
-    <hyperlink ref="F152" r:id="rId148"/>
-    <hyperlink ref="F153" r:id="rId149"/>
-    <hyperlink ref="F154" r:id="rId150"/>
-    <hyperlink ref="M154" r:id="rId151"/>
-    <hyperlink ref="M155" r:id="rId152"/>
-    <hyperlink ref="M156" r:id="rId153"/>
-    <hyperlink ref="M157" r:id="rId154"/>
-    <hyperlink ref="F158" r:id="rId155"/>
-    <hyperlink ref="F159" r:id="rId156"/>
-    <hyperlink ref="M159" r:id="rId157"/>
-    <hyperlink ref="F161" r:id="rId158"/>
-    <hyperlink ref="F162" r:id="rId159"/>
-    <hyperlink ref="F163" r:id="rId160"/>
-    <hyperlink ref="M163" r:id="rId161"/>
-    <hyperlink ref="M164" r:id="rId162"/>
-    <hyperlink ref="F166" r:id="rId163"/>
-    <hyperlink ref="F167" r:id="rId164"/>
-    <hyperlink ref="F168" r:id="rId165"/>
-    <hyperlink ref="F169" r:id="rId166"/>
-    <hyperlink ref="F171" r:id="rId167"/>
-    <hyperlink ref="M171" r:id="rId168"/>
-    <hyperlink ref="F173" r:id="rId169"/>
-    <hyperlink ref="F174" r:id="rId170"/>
-    <hyperlink ref="F175" r:id="rId171"/>
-    <hyperlink ref="F176" r:id="rId172"/>
-    <hyperlink ref="F177" r:id="rId173"/>
-    <hyperlink ref="F178" r:id="rId174"/>
-    <hyperlink ref="F179" r:id="rId175"/>
-    <hyperlink ref="F180" r:id="rId176"/>
-    <hyperlink ref="F181" r:id="rId177"/>
-    <hyperlink ref="F182" r:id="rId178"/>
-    <hyperlink ref="F183" r:id="rId179"/>
-    <hyperlink ref="F184" r:id="rId180"/>
-    <hyperlink ref="F185" r:id="rId181"/>
-    <hyperlink ref="F186" r:id="rId182"/>
-    <hyperlink ref="M186" r:id="rId183"/>
-    <hyperlink ref="F188" r:id="rId184"/>
-    <hyperlink ref="F189" r:id="rId185"/>
-    <hyperlink ref="M189" r:id="rId186"/>
-    <hyperlink ref="F191" r:id="rId187"/>
-    <hyperlink ref="F192" r:id="rId188"/>
-    <hyperlink ref="F193" r:id="rId189"/>
-    <hyperlink ref="M193" r:id="rId190"/>
-    <hyperlink ref="F195" r:id="rId191"/>
-    <hyperlink ref="F196" r:id="rId192"/>
-    <hyperlink ref="F197" r:id="rId193"/>
-    <hyperlink ref="M197" r:id="rId194"/>
-    <hyperlink ref="M198" r:id="rId195"/>
-    <hyperlink ref="F200" r:id="rId196"/>
-    <hyperlink ref="M200" r:id="rId197"/>
-    <hyperlink ref="F202" r:id="rId198"/>
-    <hyperlink ref="F203" r:id="rId199"/>
-    <hyperlink ref="M203" r:id="rId200"/>
-    <hyperlink ref="F205" r:id="rId201"/>
-    <hyperlink ref="F206" r:id="rId202"/>
-    <hyperlink ref="M206" r:id="rId203"/>
-    <hyperlink ref="M207" r:id="rId204"/>
-    <hyperlink ref="M208" r:id="rId205"/>
-    <hyperlink ref="F209" r:id="rId206"/>
-    <hyperlink ref="F210" r:id="rId207"/>
-    <hyperlink ref="F211" r:id="rId208"/>
-    <hyperlink ref="F212" r:id="rId209"/>
-    <hyperlink ref="F213" r:id="rId210"/>
-    <hyperlink ref="M213" r:id="rId211"/>
-    <hyperlink ref="F215" r:id="rId212"/>
-    <hyperlink ref="M215" r:id="rId213"/>
-    <hyperlink ref="F217" r:id="rId214"/>
-    <hyperlink ref="M217" r:id="rId215"/>
-    <hyperlink ref="F219" r:id="rId216"/>
-    <hyperlink ref="M219" r:id="rId217" location="zoom=50&#10;https://www.accenture.com/gb-en/services/data-ai/responsible-ai?form=MG0AV3"/>
-    <hyperlink ref="F221" r:id="rId218"/>
-    <hyperlink ref="F222" r:id="rId219"/>
-    <hyperlink ref="M222" r:id="rId220"/>
-    <hyperlink ref="F224" r:id="rId221"/>
-    <hyperlink ref="F225" r:id="rId222"/>
-    <hyperlink ref="M225" r:id="rId223"/>
-    <hyperlink ref="M226" r:id="rId224"/>
-    <hyperlink ref="M227" r:id="rId225"/>
-    <hyperlink ref="M228" r:id="rId226"/>
-    <hyperlink ref="M229" r:id="rId227"/>
-    <hyperlink ref="M230" r:id="rId228"/>
-    <hyperlink ref="M231" r:id="rId229"/>
-    <hyperlink ref="M232" r:id="rId230"/>
-    <hyperlink ref="M233" r:id="rId231"/>
-    <hyperlink ref="M234" r:id="rId232"/>
-    <hyperlink ref="M235" r:id="rId233"/>
-    <hyperlink ref="F237" r:id="rId234"/>
-    <hyperlink ref="M237" r:id="rId235"/>
-    <hyperlink ref="M238" r:id="rId236"/>
-    <hyperlink ref="F239" r:id="rId237"/>
-    <hyperlink ref="M239" r:id="rId238"/>
-    <hyperlink ref="M240" r:id="rId239"/>
-    <hyperlink ref="F242" r:id="rId240"/>
-    <hyperlink ref="F243" r:id="rId241"/>
-    <hyperlink ref="M243" r:id="rId242"/>
-    <hyperlink ref="F245" r:id="rId243"/>
-    <hyperlink ref="M246" r:id="rId244"/>
-    <hyperlink ref="M247" r:id="rId245"/>
-    <hyperlink ref="F249" r:id="rId246"/>
-    <hyperlink ref="F250" r:id="rId247"/>
-    <hyperlink ref="F251" r:id="rId248"/>
-    <hyperlink ref="F252" r:id="rId249"/>
-    <hyperlink ref="F253" r:id="rId250"/>
-    <hyperlink ref="F254" r:id="rId251"/>
-    <hyperlink ref="M254" r:id="rId252"/>
-    <hyperlink ref="M255" r:id="rId253"/>
-    <hyperlink ref="F257" r:id="rId254"/>
-    <hyperlink ref="F258" r:id="rId255"/>
-    <hyperlink ref="F260" r:id="rId256"/>
-    <hyperlink ref="F261" r:id="rId257"/>
-    <hyperlink ref="M261" r:id="rId258"/>
-    <hyperlink ref="F263" r:id="rId259"/>
-    <hyperlink ref="F264" r:id="rId260"/>
-    <hyperlink ref="F265" r:id="rId261"/>
-    <hyperlink ref="M265" r:id="rId262"/>
-    <hyperlink ref="M266" r:id="rId263"/>
-    <hyperlink ref="M267" r:id="rId264"/>
-    <hyperlink ref="M268" r:id="rId265"/>
-    <hyperlink ref="F270" r:id="rId266"/>
-    <hyperlink ref="F271" r:id="rId267"/>
-    <hyperlink ref="M271" r:id="rId268"/>
-    <hyperlink ref="F273" r:id="rId269"/>
-    <hyperlink ref="M273" r:id="rId270"/>
-    <hyperlink ref="M274" r:id="rId271"/>
-    <hyperlink ref="M275" r:id="rId272"/>
-    <hyperlink ref="M276" r:id="rId273"/>
-    <hyperlink ref="M277" r:id="rId274"/>
-    <hyperlink ref="F278" r:id="rId275"/>
-    <hyperlink ref="M278" r:id="rId276"/>
-    <hyperlink ref="F280" r:id="rId277"/>
-    <hyperlink ref="M280" r:id="rId278"/>
-    <hyperlink ref="F282" r:id="rId279"/>
-    <hyperlink ref="M282" r:id="rId280"/>
-    <hyperlink ref="F284" r:id="rId281"/>
-    <hyperlink ref="M284" r:id="rId282"/>
-    <hyperlink ref="M285" r:id="rId283"/>
-    <hyperlink ref="M286" r:id="rId284"/>
-    <hyperlink ref="M287" r:id="rId285"/>
-    <hyperlink ref="M288" r:id="rId286"/>
-    <hyperlink ref="M289" r:id="rId287"/>
-    <hyperlink ref="F290" r:id="rId288"/>
-    <hyperlink ref="M290" r:id="rId289"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F54" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M55" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F57" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M58" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F59" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F67" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="M69" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F70" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M72" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="M75" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F76" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="M78" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F79" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F80" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F81" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="M82" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="M84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="M87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="M88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F88" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="M89" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F90" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="M91" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F92" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="M93" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="M94" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="M95" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="M96" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F97" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="M98" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="M103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="M109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="M125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="M131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F133" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="M134" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F135" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F136" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="M137" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="F138" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="M139" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="F139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="M141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="F143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="F145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F147" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="F148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="M149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="F150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F151" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="F152" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F153" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="M154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="M155" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="M156" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="M157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="F157" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="F158" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="M159" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="F160" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="F161" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="F162" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="M163" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="M164" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="F165" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F166" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="F167" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="F168" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="F170" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="M171" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="F172" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="F173" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="F174" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F175" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="F176" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F177" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="F178" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="F179" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="F180" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="F181" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="F182" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="F183" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="F184" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="F185" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="M186" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F187" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="F188" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="M189" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="F190" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="F191" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F192" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="M193" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="F194" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="F195" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="F196" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="M197" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="M198" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="F199" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="M200" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="F201" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="F202" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="M203" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="F204" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="F205" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="M206" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="M207" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="M208" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="F208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="F209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="F210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="F211" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="F212" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="M213" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="F214" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="M215" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="F216" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="M217" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="F218" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="M219" r:id="rId217" location="zoom=50_x000a_https://www.accenture.com/gb-en/services/data-ai/responsible-ai?form=MG0AV3" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="F220" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="F221" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="M222" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="F223" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="F224" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="M225" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="M226" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="M227" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="M228" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="M229" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="M230" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="M231" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="M232" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="M233" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="M234" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="M235" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="F236" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="M237" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="M238" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="F238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="M239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="M240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="F241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="F242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="M243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="F244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="M246" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="M247" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="F248" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="F249" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="F250" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="F251" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="F252" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="F253" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="M254" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="M255" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="F256" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="F257" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="F259" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="F260" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="M261" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="F262" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="F263" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="F264" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="M265" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="M266" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="M267" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="M268" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="F269" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="F270" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="M271" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="F272" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="M273" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="M274" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="M275" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="M276" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="M277" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="F277" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="M278" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="F279" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="M280" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="F281" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="M282" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="F283" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="M284" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="M285" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="M286" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="M287" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="M288" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="M289" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="F289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="M290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="J2" r:id="rId290" xr:uid="{E309C863-C66A-48D9-9666-30368924BD9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
